--- a/2001/Adul01.xlsx
+++ b/2001/Adul01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uah\OneDrive - Universidad de Alcala\FIS 2021\dta\cvd_inequities_spain\2001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/pedro_gullon_uah_es/Documents/FIS 2021/dta/cvd_inequities_spain/2001/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_EB2DD0DA0DFDACF61836466F9508C73FA07AC08A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -1217,7 +1218,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,19 +1227,19 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1554,24 +1555,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E933"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.45" customHeight="1">
+    <row r="1" spans="1:5" ht="24.4" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1581,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="87.9" customHeight="1">
+    <row r="2" spans="1:5" ht="87.95" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="34.65" customHeight="1">
+    <row r="3" spans="1:5" ht="34.700000000000003" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -7729,25 +7730,25 @@
     <row r="468" spans="1:5">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="1:5" ht="82.65" customHeight="1"/>
-    <row r="470" spans="1:5" ht="372.9" customHeight="1"/>
+    <row r="469" spans="1:5" ht="82.7" customHeight="1"/>
+    <row r="470" spans="1:5" ht="372.95" customHeight="1"/>
     <row r="471" spans="1:5" ht="99.75" customHeight="1"/>
     <row r="472" spans="1:5" ht="48.6" customHeight="1"/>
-    <row r="473" spans="1:5" ht="45.15" customHeight="1"/>
+    <row r="473" spans="1:5" ht="45.2" customHeight="1"/>
     <row r="474" spans="1:5" ht="134.1" customHeight="1"/>
-    <row r="475" spans="1:5" ht="82.65" customHeight="1"/>
+    <row r="475" spans="1:5" ht="82.7" customHeight="1"/>
     <row r="476" spans="1:5" ht="134.1" customHeight="1"/>
-    <row r="477" spans="1:5" ht="82.65" customHeight="1"/>
+    <row r="477" spans="1:5" ht="82.7" customHeight="1"/>
     <row r="478" spans="1:5" ht="99.75" customHeight="1"/>
     <row r="479" spans="1:5" ht="31.5" customHeight="1"/>
-    <row r="480" spans="1:5" ht="113.4" customHeight="1"/>
+    <row r="480" spans="1:5" ht="113.45" customHeight="1"/>
     <row r="481" ht="99.75" customHeight="1"/>
-    <row r="482" ht="408.9" customHeight="1"/>
+    <row r="482" ht="408.95" customHeight="1"/>
     <row r="483" ht="49.35" customHeight="1"/>
-    <row r="484" ht="198.9" customHeight="1"/>
-    <row r="485" ht="408.9" customHeight="1"/>
-    <row r="486" ht="83.4" customHeight="1"/>
-    <row r="487" ht="198.9" customHeight="1"/>
+    <row r="484" ht="198.95" customHeight="1"/>
+    <row r="485" ht="408.95" customHeight="1"/>
+    <row r="486" ht="83.45" customHeight="1"/>
+    <row r="487" ht="198.95" customHeight="1"/>
     <row r="488" ht="99.75" customHeight="1"/>
     <row r="489" ht="99.75" customHeight="1"/>
     <row r="490" ht="99.75" customHeight="1"/>
@@ -7760,7 +7761,7 @@
     <row r="497" ht="99.75" customHeight="1"/>
     <row r="498" ht="99.75" customHeight="1"/>
     <row r="499" ht="48.6" customHeight="1"/>
-    <row r="500" ht="45.15" customHeight="1"/>
+    <row r="500" ht="45.2" customHeight="1"/>
     <row r="501" ht="99.75" customHeight="1"/>
     <row r="502" ht="99.75" customHeight="1"/>
     <row r="503" ht="99.75" customHeight="1"/>
@@ -7770,19 +7771,19 @@
     <row r="507" ht="62.25" customHeight="1"/>
     <row r="508" ht="48.6" customHeight="1"/>
     <row r="509" ht="62.25" customHeight="1"/>
-    <row r="510" ht="150.9" customHeight="1"/>
+    <row r="510" ht="150.94999999999999" customHeight="1"/>
     <row r="511" ht="134.1" customHeight="1"/>
-    <row r="512" ht="150.9" customHeight="1"/>
-    <row r="513" ht="150.9" customHeight="1"/>
+    <row r="512" ht="150.94999999999999" customHeight="1"/>
+    <row r="513" ht="150.94999999999999" customHeight="1"/>
     <row r="514" ht="48.6" customHeight="1"/>
     <row r="515" ht="62.25" customHeight="1"/>
-    <row r="516" ht="82.65" customHeight="1"/>
+    <row r="516" ht="82.7" customHeight="1"/>
     <row r="517" ht="48.6" customHeight="1"/>
     <row r="518" ht="62.25" customHeight="1"/>
-    <row r="519" ht="82.65" customHeight="1"/>
+    <row r="519" ht="82.7" customHeight="1"/>
     <row r="520" ht="48.6" customHeight="1"/>
     <row r="521" ht="25.5" customHeight="1"/>
-    <row r="522" ht="27.9" customHeight="1"/>
+    <row r="522" ht="27.95" customHeight="1"/>
     <row r="523" ht="48.6" customHeight="1"/>
     <row r="524" ht="62.25" customHeight="1"/>
     <row r="525" ht="48.6" customHeight="1"/>
@@ -7792,7 +7793,7 @@
     <row r="529" ht="48.6" customHeight="1"/>
     <row r="530" ht="62.25" customHeight="1"/>
     <row r="531" ht="48.6" customHeight="1"/>
-    <row r="532" ht="56.4" customHeight="1"/>
+    <row r="532" ht="56.45" customHeight="1"/>
     <row r="533" ht="99.75" customHeight="1"/>
     <row r="534" ht="48.6" customHeight="1"/>
     <row r="535" ht="62.25" customHeight="1"/>
@@ -7822,7 +7823,7 @@
     <row r="559" ht="48.6" customHeight="1"/>
     <row r="560" ht="62.25" customHeight="1"/>
     <row r="561" ht="99.75" customHeight="1"/>
-    <row r="562" ht="82.65" customHeight="1"/>
+    <row r="562" ht="82.7" customHeight="1"/>
     <row r="563" ht="12.75" customHeight="1"/>
     <row r="564" ht="48.6" customHeight="1"/>
     <row r="565" ht="62.25" customHeight="1"/>
@@ -7837,7 +7838,7 @@
     <row r="574" ht="62.25" customHeight="1"/>
     <row r="575" ht="99.75" customHeight="1"/>
     <row r="576" ht="48.6" customHeight="1"/>
-    <row r="577" ht="105.9" customHeight="1"/>
+    <row r="577" ht="105.95" customHeight="1"/>
     <row r="578" ht="62.25" customHeight="1"/>
     <row r="579" ht="48.6" customHeight="1"/>
     <row r="580" ht="62.25" customHeight="1"/>
@@ -7852,7 +7853,7 @@
     <row r="589" ht="62.25" customHeight="1"/>
     <row r="590" ht="48.6" customHeight="1"/>
     <row r="591" ht="62.25" customHeight="1"/>
-    <row r="592" ht="82.65" customHeight="1"/>
+    <row r="592" ht="82.7" customHeight="1"/>
     <row r="593" ht="15" customHeight="1"/>
     <row r="594" ht="41.1" customHeight="1"/>
     <row r="595" ht="62.25" customHeight="1"/>
@@ -7874,7 +7875,7 @@
     <row r="611" ht="48.6" customHeight="1"/>
     <row r="612" ht="62.25" customHeight="1"/>
     <row r="613" ht="48.6" customHeight="1"/>
-    <row r="614" ht="56.4" customHeight="1"/>
+    <row r="614" ht="56.45" customHeight="1"/>
     <row r="615" ht="44.25" customHeight="1"/>
     <row r="616" ht="62.25" customHeight="1"/>
     <row r="617" ht="48.6" customHeight="1"/>
@@ -7898,7 +7899,7 @@
     <row r="635" ht="62.25" customHeight="1"/>
     <row r="636" ht="48.6" customHeight="1"/>
     <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="45.15" customHeight="1"/>
+    <row r="638" ht="45.2" customHeight="1"/>
     <row r="639" ht="48.6" customHeight="1"/>
     <row r="640" ht="62.25" customHeight="1"/>
     <row r="641" ht="48.6" customHeight="1"/>
@@ -7908,7 +7909,7 @@
     <row r="645" ht="48.6" customHeight="1"/>
     <row r="646" ht="62.25" customHeight="1"/>
     <row r="647" ht="48.6" customHeight="1"/>
-    <row r="648" ht="56.4" customHeight="1"/>
+    <row r="648" ht="56.45" customHeight="1"/>
     <row r="649" ht="44.25" customHeight="1"/>
     <row r="650" ht="62.25" customHeight="1"/>
     <row r="651" ht="48.6" customHeight="1"/>
@@ -7929,31 +7930,31 @@
     <row r="666" ht="48.6" customHeight="1"/>
     <row r="667" ht="62.25" customHeight="1"/>
     <row r="668" ht="99.75" customHeight="1"/>
-    <row r="669" ht="82.65" customHeight="1"/>
+    <row r="669" ht="82.7" customHeight="1"/>
     <row r="670" ht="12.75" customHeight="1"/>
     <row r="671" ht="48.6" customHeight="1"/>
     <row r="672" ht="62.25" customHeight="1"/>
-    <row r="673" ht="239.4" customHeight="1"/>
-    <row r="674" ht="82.65" customHeight="1"/>
+    <row r="673" ht="239.45" customHeight="1"/>
+    <row r="674" ht="82.7" customHeight="1"/>
     <row r="675" ht="48.6" customHeight="1"/>
     <row r="676" ht="137.1" customHeight="1"/>
     <row r="677" ht="147.6" customHeight="1"/>
-    <row r="678" ht="150.9" customHeight="1"/>
+    <row r="678" ht="150.94999999999999" customHeight="1"/>
     <row r="679" ht="407.25" customHeight="1"/>
     <row r="680" ht="79.349999999999994" customHeight="1"/>
     <row r="681" ht="134.1" customHeight="1"/>
     <row r="682" ht="99.75" customHeight="1"/>
     <row r="683" ht="48.6" customHeight="1"/>
-    <row r="684" ht="45.15" customHeight="1"/>
+    <row r="684" ht="45.2" customHeight="1"/>
     <row r="685" ht="48.6" customHeight="1"/>
-    <row r="686" ht="45.15" customHeight="1"/>
+    <row r="686" ht="45.2" customHeight="1"/>
     <row r="687" ht="48.6" customHeight="1"/>
-    <row r="688" ht="56.4" customHeight="1"/>
-    <row r="689" ht="219.15" customHeight="1"/>
+    <row r="688" ht="56.45" customHeight="1"/>
+    <row r="689" ht="219.2" customHeight="1"/>
     <row r="690" ht="99.75" customHeight="1"/>
-    <row r="691" ht="82.65" customHeight="1"/>
+    <row r="691" ht="82.7" customHeight="1"/>
     <row r="692" ht="116.85" customHeight="1"/>
-    <row r="693" ht="82.65" customHeight="1"/>
+    <row r="693" ht="82.7" customHeight="1"/>
     <row r="694" ht="15" customHeight="1"/>
     <row r="695" ht="62.25" customHeight="1"/>
     <row r="696" ht="99.75" customHeight="1"/>
@@ -7964,7 +7965,7 @@
     <row r="701" ht="48.6" customHeight="1"/>
     <row r="702" ht="62.25" customHeight="1"/>
     <row r="703" ht="48.6" customHeight="1"/>
-    <row r="704" ht="56.4" customHeight="1"/>
+    <row r="704" ht="56.45" customHeight="1"/>
     <row r="705" ht="44.25" customHeight="1"/>
     <row r="706" ht="62.25" customHeight="1"/>
     <row r="707" ht="99.75" customHeight="1"/>
@@ -7972,7 +7973,7 @@
     <row r="709" ht="62.25" customHeight="1"/>
     <row r="710" ht="48.6" customHeight="1"/>
     <row r="711" ht="62.25" customHeight="1"/>
-    <row r="712" ht="150.9" customHeight="1"/>
+    <row r="712" ht="150.94999999999999" customHeight="1"/>
     <row r="713" ht="15" customHeight="1"/>
     <row r="714" ht="79.349999999999994" customHeight="1"/>
     <row r="715" ht="99.75" customHeight="1"/>
@@ -7982,7 +7983,7 @@
     <row r="719" ht="62.25" customHeight="1"/>
     <row r="720" ht="99.75" customHeight="1"/>
     <row r="721" ht="48.6" customHeight="1"/>
-    <row r="722" ht="56.4" customHeight="1"/>
+    <row r="722" ht="56.45" customHeight="1"/>
     <row r="723" ht="44.25" customHeight="1"/>
     <row r="724" ht="62.25" customHeight="1"/>
     <row r="725" ht="48.6" customHeight="1"/>
@@ -7990,19 +7991,19 @@
     <row r="727" ht="48.6" customHeight="1"/>
     <row r="728" ht="62.25" customHeight="1"/>
     <row r="729" ht="48.6" customHeight="1"/>
-    <row r="730" ht="45.15" customHeight="1"/>
+    <row r="730" ht="45.2" customHeight="1"/>
     <row r="731" ht="48.6" customHeight="1"/>
-    <row r="732" ht="45.15" customHeight="1"/>
-    <row r="733" ht="65.400000000000006" customHeight="1"/>
+    <row r="732" ht="45.2" customHeight="1"/>
+    <row r="733" ht="65.45" customHeight="1"/>
     <row r="734" ht="79.349999999999994" customHeight="1"/>
     <row r="735" ht="99.75" customHeight="1"/>
     <row r="736" ht="99.75" customHeight="1"/>
     <row r="737" ht="99.75" customHeight="1"/>
-    <row r="738" ht="150.9" customHeight="1"/>
+    <row r="738" ht="150.94999999999999" customHeight="1"/>
     <row r="739" ht="48.6" customHeight="1"/>
     <row r="740" ht="41.25" customHeight="1"/>
     <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="82.65" customHeight="1"/>
+    <row r="742" ht="82.7" customHeight="1"/>
     <row r="743" ht="99.75" customHeight="1"/>
     <row r="744" ht="48.6" customHeight="1"/>
     <row r="745" ht="62.25" customHeight="1"/>
@@ -8014,7 +8015,7 @@
     <row r="751" ht="99.75" customHeight="1"/>
     <row r="752" ht="99.75" customHeight="1"/>
     <row r="753" ht="99.75" customHeight="1"/>
-    <row r="754" ht="82.65" customHeight="1"/>
+    <row r="754" ht="82.7" customHeight="1"/>
     <row r="755" ht="116.85" customHeight="1"/>
     <row r="756" ht="116.85" customHeight="1"/>
     <row r="757" ht="48.6" customHeight="1"/>
@@ -8024,11 +8025,11 @@
     <row r="761" ht="48.6" customHeight="1"/>
     <row r="762" ht="62.25" customHeight="1"/>
     <row r="763" ht="48.6" customHeight="1"/>
-    <row r="764" ht="27.9" customHeight="1"/>
+    <row r="764" ht="27.95" customHeight="1"/>
     <row r="765" ht="116.85" customHeight="1"/>
-    <row r="766" ht="82.65" customHeight="1"/>
-    <row r="767" ht="82.65" customHeight="1"/>
-    <row r="768" ht="82.65" customHeight="1"/>
+    <row r="766" ht="82.7" customHeight="1"/>
+    <row r="767" ht="82.7" customHeight="1"/>
+    <row r="768" ht="82.7" customHeight="1"/>
     <row r="769" ht="185.25" customHeight="1"/>
     <row r="770" ht="31.5" customHeight="1"/>
     <row r="771" ht="183.75" customHeight="1"/>
@@ -8039,7 +8040,7 @@
     <row r="776" ht="62.25" customHeight="1"/>
     <row r="777" ht="99.75" customHeight="1"/>
     <row r="778" ht="48.6" customHeight="1"/>
-    <row r="779" ht="45.15" customHeight="1"/>
+    <row r="779" ht="45.2" customHeight="1"/>
     <row r="780" ht="48.6" customHeight="1"/>
     <row r="781" ht="62.25" customHeight="1"/>
     <row r="782" ht="202.35" customHeight="1"/>
@@ -8053,7 +8054,7 @@
     <row r="790" ht="202.35" customHeight="1"/>
     <row r="791" ht="48.6" customHeight="1"/>
     <row r="792" ht="41.25" customHeight="1"/>
-    <row r="793" ht="113.4" customHeight="1"/>
+    <row r="793" ht="113.45" customHeight="1"/>
     <row r="794" ht="48.6" customHeight="1"/>
     <row r="795" ht="62.25" customHeight="1"/>
     <row r="796" ht="48.6" customHeight="1"/>
@@ -8083,15 +8084,15 @@
     <row r="820" ht="62.25" customHeight="1"/>
     <row r="821" ht="48.6" customHeight="1"/>
     <row r="822" ht="62.25" customHeight="1"/>
-    <row r="823" ht="82.65" customHeight="1"/>
-    <row r="824" ht="27.9" customHeight="1"/>
+    <row r="823" ht="82.7" customHeight="1"/>
+    <row r="824" ht="27.95" customHeight="1"/>
     <row r="825" ht="48.6" customHeight="1"/>
     <row r="826" ht="62.25" customHeight="1"/>
     <row r="827" ht="116.85" customHeight="1"/>
     <row r="828" ht="99.75" customHeight="1"/>
-    <row r="829" ht="82.65" customHeight="1"/>
+    <row r="829" ht="82.7" customHeight="1"/>
     <row r="830" ht="48.6" customHeight="1"/>
-    <row r="831" ht="118.65" customHeight="1"/>
+    <row r="831" ht="118.7" customHeight="1"/>
     <row r="832" ht="99.75" customHeight="1"/>
     <row r="833" ht="48.6" customHeight="1"/>
     <row r="834" ht="62.25" customHeight="1"/>
@@ -8099,49 +8100,49 @@
     <row r="836" ht="99.75" customHeight="1"/>
     <row r="837" ht="99.75" customHeight="1"/>
     <row r="838" ht="99.75" customHeight="1"/>
-    <row r="839" ht="150.9" customHeight="1"/>
+    <row r="839" ht="150.94999999999999" customHeight="1"/>
     <row r="840" ht="48.6" customHeight="1"/>
-    <row r="841" ht="113.4" customHeight="1"/>
-    <row r="842" ht="150.9" customHeight="1"/>
-    <row r="843" ht="150.9" customHeight="1"/>
+    <row r="841" ht="113.45" customHeight="1"/>
+    <row r="842" ht="150.94999999999999" customHeight="1"/>
+    <row r="843" ht="150.94999999999999" customHeight="1"/>
     <row r="844" ht="15" customHeight="1"/>
     <row r="845" ht="130.5" customHeight="1"/>
-    <row r="846" ht="150.9" customHeight="1"/>
-    <row r="847" ht="150.9" customHeight="1"/>
-    <row r="848" ht="150.9" customHeight="1"/>
+    <row r="846" ht="150.94999999999999" customHeight="1"/>
+    <row r="847" ht="150.94999999999999" customHeight="1"/>
+    <row r="848" ht="150.94999999999999" customHeight="1"/>
     <row r="849" ht="65.849999999999994" customHeight="1"/>
     <row r="850" ht="79.349999999999994" customHeight="1"/>
     <row r="851" ht="48.6" customHeight="1"/>
-    <row r="852" ht="113.4" customHeight="1"/>
+    <row r="852" ht="113.45" customHeight="1"/>
     <row r="853" ht="48.6" customHeight="1"/>
-    <row r="854" ht="113.4" customHeight="1"/>
+    <row r="854" ht="113.45" customHeight="1"/>
     <row r="855" ht="99.75" customHeight="1"/>
     <row r="856" ht="134.1" customHeight="1"/>
-    <row r="857" ht="27.9" customHeight="1"/>
+    <row r="857" ht="27.95" customHeight="1"/>
     <row r="858" ht="99.75" customHeight="1"/>
     <row r="859" ht="48.6" customHeight="1"/>
-    <row r="860" ht="113.4" customHeight="1"/>
+    <row r="860" ht="113.45" customHeight="1"/>
     <row r="861" ht="134.1" customHeight="1"/>
     <row r="862" ht="99.75" customHeight="1"/>
     <row r="863" ht="99.75" customHeight="1"/>
-    <row r="864" ht="27.9" customHeight="1"/>
+    <row r="864" ht="27.95" customHeight="1"/>
     <row r="865" ht="99.75" customHeight="1"/>
     <row r="866" ht="134.1" customHeight="1"/>
     <row r="867" ht="99.75" customHeight="1"/>
     <row r="868" ht="99.75" customHeight="1"/>
-    <row r="869" ht="150.9" customHeight="1"/>
+    <row r="869" ht="150.94999999999999" customHeight="1"/>
     <row r="870" ht="99.75" customHeight="1"/>
     <row r="871" ht="99.75" customHeight="1"/>
     <row r="872" ht="99.75" customHeight="1"/>
     <row r="873" ht="99.75" customHeight="1"/>
     <row r="874" ht="168" customHeight="1"/>
-    <row r="875" ht="65.400000000000006" customHeight="1"/>
+    <row r="875" ht="65.45" customHeight="1"/>
     <row r="876" ht="96.6" customHeight="1"/>
-    <row r="877" ht="65.400000000000006" customHeight="1"/>
+    <row r="877" ht="65.45" customHeight="1"/>
     <row r="878" ht="130.5" customHeight="1"/>
     <row r="879" ht="168" customHeight="1"/>
     <row r="880" ht="48.6" customHeight="1"/>
-    <row r="881" ht="118.65" customHeight="1"/>
+    <row r="881" ht="118.7" customHeight="1"/>
     <row r="882" ht="168" customHeight="1"/>
     <row r="883" ht="48.6" customHeight="1"/>
     <row r="884" ht="79.349999999999994" customHeight="1"/>
@@ -8163,7 +8164,7 @@
     <row r="900" ht="116.85" customHeight="1"/>
     <row r="901" ht="116.85" customHeight="1"/>
     <row r="902" ht="48.6" customHeight="1"/>
-    <row r="903" ht="72.150000000000006" customHeight="1"/>
+    <row r="903" ht="72.2" customHeight="1"/>
     <row r="904" ht="44.1" customHeight="1"/>
     <row r="905" ht="79.349999999999994" customHeight="1"/>
     <row r="906" ht="48.6" customHeight="1"/>
@@ -8172,7 +8173,7 @@
     <row r="909" ht="79.349999999999994" customHeight="1"/>
     <row r="910" ht="116.85" customHeight="1"/>
     <row r="911" ht="48.6" customHeight="1"/>
-    <row r="912" ht="72.150000000000006" customHeight="1"/>
+    <row r="912" ht="72.2" customHeight="1"/>
     <row r="913" ht="44.25" customHeight="1"/>
     <row r="914" ht="79.349999999999994" customHeight="1"/>
     <row r="915" ht="116.85" customHeight="1"/>
@@ -8192,7 +8193,7 @@
     <row r="929" ht="96.6" customHeight="1"/>
     <row r="930" ht="48.6" customHeight="1"/>
     <row r="931" ht="79.349999999999994" customHeight="1"/>
-    <row r="932" ht="304.64999999999998" customHeight="1"/>
+    <row r="932" ht="304.7" customHeight="1"/>
     <row r="933" ht="99.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
@@ -8206,18 +8207,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8450,6 +8451,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98D8B340-A4E1-40E1-85E8-BE3534EFA219}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C908757C-CB12-42CA-991E-1243FF49C8D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -8462,14 +8471,6 @@
     <ds:schemaRef ds:uri="90decf6f-7a23-45b1-b917-c4ae6022e25b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98D8B340-A4E1-40E1-85E8-BE3534EFA219}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
